--- a/500all/speech_level/speeches_CHRG-114hhrg20531.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order and the subject here is combating what we call the virtual caliphate on the Internet.    Unfortunately, there is an irony in the effort to combat ISIS recruitment online and that is that the United States, which is the world's leader in technological innovation, is hardly in the game.    To protect Americans at home and abroad, this has to change. So great has been the explosion of slick and professional ISIS videos online that, as I indicated, a lot of people are referring to this as the virtual caliphate. Because within seconds, ISIS can reach a global audience using popular social media sites, disseminating hateful propaganda to recruit new fighters and promote its extreme ideology.    And more and more, the virtual caliphate is calling on its followers not necessarily to go to Syria or Iraq or Libya now but to take up arms and attack where they are at home.    ``The smallest action you do''--in their words--``the smallest action you do in their homeland is better and more enduring to us than what you would if you were with us.'' That is the refrain. That is the message being pounded into would-be jihadists and it is a message that is being pounded into many Americans and we know that terrorists consumed Islamist propaganda over the Internet. The attacks in Brussels, San Bernardino, Orlando, Paris, those are tied to ISIS' online efforts based on the sites visited by those undertaking these terrorist attacks.    Indeed, ISIS' online dominance is just as critical to that organization as the large amounts of territory that it controls in Iraq or Syria or Libya or other training bases that they have set up.    Unfortunately, the pace of our ``cyber bombs,'' as we sometimes call them--the counter battery work that we do, that we are dropping on ISIS' virtual sanctuary to take out these Web sites--is like our campaign on its physical territory. It is slow and it is inadequate to this task.    The State Department's efforts to respond to extremist content online are woefully inadequate. Its Center for Strategic Counter Terrorism Communications was designed to identify and respond to extremist content online. Yet because its communications were ``branded'' with the official State Department's seal, they fell on deaf ears. It is not effective to use the State Department seal when you are doing a counterterrorism narrative.    In March, the President issued an Executive order to revamp this effort, renaming it the Global Engagement Center and giving it the mission to lead the government-wide effort to ``diminish the influence of international terrorist organizations,'' as we said. The committee will soon hear from the administration how this effort differs from past failures.    But unfortunately, in public diplomacy as we know--and this is pretty widely the view--our public diplomacy efforts on electronic media, on social media have really been pretty much a bust--dysfunctional in the analysis of former State Department personnel who have taken a good long look at this.    At a basic level, key questions remain, including the type of message that would be most effective in the face of this virulent ideology. Some suggest that the voices of disaffected former jihadists are particularly potent in deterring future jihadists. These are individuals who quickly discovered that life under ISIS is not the utopia they were promised. Or the voices of former radicals--Ed Husain with his book ``The Jihadist.'' I read that lively account and it is clear that it is having quite an impact with young people, creating a lot of second thoughts about where this ideology is leading.    But if this is the message, how should it be delivered? Should the Federal Government produce and disseminate content? Is the Federal bureaucracy equipped for such a fast-moving fight? Does any association with the State Department mean this message is dead on arrival, as we found with the, you know, State Department indicia or the State Department title put out there as part of the narrative?    A more effective approach could have the U.S. Government issuing grants to outside groups to carry out this mission. This would have the advantage of allowing the U.S. Government to set the policy, but put those with the technical expertise and credible voice in the driver's seat here in delivering the message. After all, such separation and distance from the U.S. Government have helped our democracy promotion programs through the National Endowment for Democracy work in areas of the globe where official U.S. support just isn't feasible.    We also want to make use of emerging technologies that can automatically detect and remove extremist content online. I am aware that the private sector is working quickly to develop these types of programs, and admittedly, all this isn't easy. If it was, we'd be much better positioned going forward. But if we don't come to grips with the virtual caliphate now, this long struggle against Islamist terrorism will extend even longer, with great loss of life.    So I now turn to our ranking member, Mr. Brad Sherman from California, for any statement he may have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. There are events going on the floor yesterday and today. It is not the House at a high point of bipartisanship and order, and we can argue about who's to blame.    But when we come into this room, Mr. Chairman, we do see a high point of bipartisanship and order and the credit, clearly, goes to you and the ranking member. The ranking member cannot be here, at least at the beginning of this hearing, and I have an improvised opening statement. I had nothing prepared walking in so let us see whether any of these comments are helpful.    First in this issue we face the issue of whether to take down the terrorist message or leave it up and monitor, and I want to say almost always take it down.    First, the theory of fast and furious, let them take the guns and we will monitor what happens with the guns did not work then and the idea of let them leave the dangerous site up and let us monitor what happens may not work in the future.    But in addition, the terrorists know we are watching and they have decided--and they have been pretty good at this--that putting their message up publically is helpful notwithstanding the fact that we are monitoring it.    We ought to take it down. That means we need the coordination and cooperation of the industry. It was just about a year ago that Chairman Royce, Ranking Member Eliot Engel, Ted Poe, and I called upon Twitter to update its terms of service and take the terrorist message off Twitter.    Twitter was reluctant a bit at first but in April 2015 Twitter announced changes to their terms of service, added a new language to its stance on abusive behavior and adding the words ``threatening or promoting terrorism'' and they have substantially improved.    I should note that since Twitter changed its policies the terrorists have been forced onto other systems. Their tactic now involves direct messaging. I view that as a step forward. We closed off an efficient way to reach many people and now they have to try to use a less efficient system. But we now have to stop these direct messages.    We also have to focus on their encrypted chat apps--Telegram, Surespot, Theema--which seemed to have been created precisely for the market of people who want to evade law enforcement and I wonder why such products exist.    Next issue, and one that I have talked in this room an awful lot about, is the need to have people who know the language of the people we are trying to influence and I don't just mean studied Arabic in college. I mean a cultural understanding and an understanding of Islamic theology, Islamic jurisprudence, and Islamic history. Again and again the State Department has testified in this room that they don't have anybody who they have hired specifically because that person has the expertise in those areas whereas they have dozens of experts in arcane European diplomatic law as if the Austro-Hungarian Empire is the greatest concern of American foreign policy.    I am not saying that we should be issuing fatwas out of the State Department but we ought to have somebody who has read 1,000 fatwas working in the State Department and someone who knows the difference between what is accepted as a good hadith and what is not.    And the reason for this as our target audience is people who think they might want to kill innocent women and children. These are people who start from a very bizarre mindset. They are thinking of becoming terrorists.    They don't necessarily see the world the way we do translated into Arabic or translated into another language. These are people for whom evil consists--the word evil may not include killing a Yazidi family or torturing people or throwing gay people off of tall buildings.    They may live in a world where they think the Koran says that is what you're supposed to do. We have to have people that can go into that world. Not just the cyber world but the psychological world, and demonstrate to them that this is a perversion of Islam that has been focused by the terrorists.    For staffing, we need to look at whether it should be uniform military or civilian or some new status that is in between. And finally, Mr. Chairman, what happens over there comes over here. What happens in Raqqa doesn't stay in Raqqa.    An important part of turning back the cyberterrorist threat is to deal with ISIS on the ground and that will require changing and the administration is beginning to change the rules of engagement so that we can hit strategic targets, doing our best to avoid civilian casualties but not with the view that a single civilian casualty--the possibility of one stops any particular attack.    The ranking member has a statement prepared for delivery and I request that we make it part of the record.</t>
   </si>
   <si>
@@ -79,27 +73,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Hughes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hughes. Thank you. Chairman Royce, Ranking Member Sherman, distinguished members of the committee, it is a privilege to be invited to speak here today.    There are at least 900 active ISIS investigations in all 50 States. An estimated 250 Americans have attempted to or have travelled to Syria and Iraq to join groups like ISIS. The program in extremism has identified 91 people who have been charged with ISIS-related offenses in the last 2 years.    Homegrown terrorism is an apt description, as the overwhelming majority of these individuals are U.S. citizens born and raised here. There is no typical profile of an ISIS recruit. They are old. They are young. They are rich. They are poor. College educated and they are high school dropouts.    The United States, with its notable exceptions, does not have extremist organizations providing in-person ideological and logistical support to individuals drawn to the jihadi narrative.    As a result, American ISIS sympathizers are forced to find like-minded communities online. ISIS sympathizers use the online environment in a variety of ways.    First, of course, they use it to push the propaganda. Second, ISIS recruiters act as spotters to identify and groom would-be recruits. Third, they provide logistical support for would-be recruits. Finally, they encourage Americans to commit attacks here in the homeland.    ISIS supporters are very active and persistent online. Despite repeated removal from social media sites for violating terms of service, sympathizers routinely return to these platforms with new accounts.    A prime example of that is a recently arrested American woman who operated at least 97 Twitter accounts before her arrest.    There is a well-used but decentralized system that provides a level of resiliency to these online social networks. Using Twitter as an example, there is an ISIS shout-out account that announces newly created accounts of previously suspended accounts, allowing a person to essentially build back their network online.    However, it is important to note that ISIS network on Twitter has declined substantially since 2014 as a result of sustained suspensions. An overt English language ISIS-support network is nearly gone from Facebook but they still use it occasionally to mount campaigns and for person-to-person communications.    The English language ISIS echo chamber is now mostly concentrated on Telegram where they can more easily congregate. ISIS radicalization is by no means limited to social media. In-person relationships still matter a great deal.    It is an over simplification to say that Internet radicalization is the main factor driving American ISIS supporters. Rather, in most cases online and offline dynamics complement one another.    In 1998, Osama bin Laden faxed his declaration of war to the West. It would rightly be seen as naive to contend that fax machine radicalization was a key driver for al-Qaeda's early recruitment.    A similar dynamic plays out 18 years later. The State Department and USAID have released a countering violent extremism strategy. The State Department has also expanded the mission of the Bureau of Counter Terrorism to now include proactive CVE programs.    While a step in the right direction, time will tell whether this new focus on preventative programming will result in a tangible shift in resources and personnel.    Recently, the State Department also reorganized to address the changing nature of ISIS vis-a-vis the Internet. The newly-formed Global Engagement Center--the GEC--represents a recognition that previous efforts needed to be adjusted. However, the bureaucratic and structural issues that hampered and plagued GEC's predecessor are still present. The GEC may be limited in its online engagement by legal restrictions on collecting personal information. Working with civil rights and civil liberties groups, the committee should consider legislative fixes that allow the GEC some limited exemptions from the Privacy Act requirements.    There is also a noticeable push to empower local partners to provide counter messaging. In conversations with these partners, many have expressed a concern that engaging with known or suspected terrorists online may unduly place them under law enforcement suspicion.    The administration should consider providing the legal guidance to potential counter messengers, religious leaders around the country so they can make informed decisions on whether and how to engage online.    And technology companies have in the past been pushed by Congress and the public to expand and enforce their terms of service. That is right.    But the U.S. Government should use its convening authority to bring together civil society partners who want to perform counter messaging but don't understand the technology with social media providers who understand their platform but don't understand the nuances of counter messaging.    Thank you for an opportunity to testify. I welcome your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you, Mr. Hughes.    Dr. Lobel.</t>
   </si>
   <si>
-    <t>Lobel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lobel. Thank you, Chairman Royce, Ranking Member Sherman and distinguished members of the committee for inviting me to testify today, and thank you for your leadership and the example of bipartisanship you set on this committee.    It is so critical because in the long run America will only be successful in countering the ideology of Islamic extremism if our policies have bipartisan support.    As the founder of America Abroad Media, I have spent almost a decade and a half developing partnerships with major media channels in the greater Middle East. Based on my experience, I would like to summarize my written testimony and underscore two main points today.    First, the focus of U.S. strategy should be on enabling, supporting, and amplifying the indigenous voices for progress in the greater Middle East. This approach will yield far better results than trying to manage a counter messaging campaign from Washington.    Second, the best way for the U.S. Government to support those in the Middle East who share a vision for positive change is by mobilizing the creative power of America's leading institutions--Hollywood, Silicon Valley, our philanthropy, our NGOs, and our universities--so they can collaborate directly with their counterparts in the region.    From my own experience, I can tell you there are many people in the Middle East today pushing for greater progress and pluralism and there is a critical mass of them in the media.    The most popular TV channels in the region reach tens of millions of people and have the highest credibility with their audience. Several of these channels are producing programs that seek to promote the values of pluralism and counter extremist narratives.    For example, one of our partners is the largest Pan-Arab channel--the largest--the Saudi-owned Middle East Broadcasting Center (MBC). It is currently developing a large scale, 20-plus episode, anti-ISIS drama series based on real stories of young men and women who left their homes to join ISIS only to discover the reality behind their propaganda.    Last year, MBC aired a hit anti-ISIS comedy called ``Selfie'' which used the power of satire to expose ISIS hypocrisy. It was the number-one Ramadan show in the Gulf and had an audience exceeding 25 million.    Simply put, no U.S. Government channel or program in the Middle East, no matter how well intentioned or well produced, can come close to delivering this kind of reach or impact.    Young people in the Arab world today watch all the Hollywood movies and Turkish soap operas. But what they really want are more of these MBC-style shows, original Arabic language drama and comedy that reflects their own cultural storylines and meets the highest international standards.    And the creative community there have told me directly they want Hollywood support and guidance in order to develop more shows that meet their audiences' expectations.    They are asking for Hollywood writers to help them hone the storytelling and script writing skills that make American shows so successful. They want to learn from Hollywood's experience in order to develop world class Arab television and film.    My organization has already begun to help with this effort. I recently returned from a trip to Abu Dhabi with three of Hollywood's best storytellers, the award-winning producers and writers Ben Silverman, Greg Daniels, and Howard Owens. Happy to tell you more about them.    They led workshops with Arab TV and film writers and met with more than 100 of their counterparts in the creative community to share ideas for producing world class Arab drama and entertainment.    With more collaborations of this kind, we can unleash the creativity of Hollywood to help the Middle East develop a transformative entertainment industry that reaches tens of millions of people--of their people--with stories of hope and aspiration and advances the values we share.    In fact, the State Department has already taken some promising initial steps to catalyse greater Hollywood involvement in the Middle East. Last month, under the leadership of Under Secretary Rick Stengel and Assistant Secretary Evan Ryan, the State Department convened a meeting of high-level Hollywood talent, including our partners Ben Silverman and Greg Daniels, to discuss these very issues.    In addition to this convening power, catalytic funding from the U.S. Government could also make a tremendous difference. Due to low advertising rates, the entertainment market in the Middle East today is not commercially sustainable.    The U.S. Government could play a vitally important role by providing significant funding through grants and contracts that will enable the best creative content to succeed and become commercially sustainable.    With high-level attention, our Government can also inspire America's best philanthropic institutions to play a key role. For example, the John Templeton Foundation is already engaged in the Middle East through its well-respected Islam Initiative.    Several of our other leading foundations, such as Carnegie Corporation and the MacArthur Foundation, could all join together and have an enormous impact.    The vision I am outlining here is not new. In 2002, the Advisory Group on Public Diplomacy for the Arab and Muslim World, chaired by former U.S. Ambassador Ed Djerejian, wrote,        ``An attractive, less costly alternative or supplement         to U.S. Government broadcasting would be the aggressive         development of media programming in partnership with         private firms, nonprofit institutions, and government         agencies both in the United States and the Arab and         Muslim nations.''    This programming can then be distributed through existing channels in the region. In the aftermath of the horrific Orlando attack, our country sorely needs a nationwide effort catalysed by our Government to counter the ideology of extremism.    But rather than trying to fight this ideology on our own, we should be empowering and amplifying voices that speak to the Muslim world more authentically and more directly. These voices exist and the media of the Middle East are ready to broadcast them. The United States should reach out to support and catalyse such programming.    Thank you for the opportunity to testify before your committee today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thanks, Dr. Lobel.</t>
   </si>
   <si>
-    <t>Neumann</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neumann. Thank you, Chairman Royce, Ranking Member Sherman, distinguished members of the committee. I appreciate the opportunity to talk about countering the propaganda of groups like I saw on the Internet.    My team and I in London have dedicated the past 4 years to understanding why young Muslims from Western countries are fighting with the jihadist groups in Syria and also why some of them are staying home, becoming inspired by jihadist propaganda, and end up attacking their own countries.    Based on this research and based on our accumulated knowledge about these people, some of whom are very dangerous, let me use this opportunity to make a couple of points each on the way that ISIL is using the Internet, how to counter their narrative, and finally what government needs to do to be more effective in this space.    Let me start by addressing how ISIL is using the Internet. ISIL has been more successful in exploiting the Internet than any group I have seen in 17 years of researching terrorism.    As many have pointed out, the sophistication of some of its products, the range of platforms it uses, the way it segments according to audiences, and how it has succeeded at times in dominating the conversation, all of this is unprecedented.    But--and that is my second point--the online ecosystem of ISIL goes beyond the group itself and includes more than just the videos that we are always talking about. What gives ISIL so much punch online are also, for example, individual fighters who facilitate one-on-one conversations.    It is also what we call the cheerleaders and fan boys and wannabes--people who aren't actually members of ISIS who are not based on Syria but are essentially freelance supporters often based in the West. They are the ones who are giving the group its online oomph. As far as online is concerned, what we are taking about is not just a group. It is what one of my colleagues, Dr. Nico Prucha, described as a swarm.    So how do we counter this swarm? I want to focus on the question of counter narratives. First point, there isn't one counter narrative and there isn't one counter narrator. Just like ISIL is segmenting its message according to audiences, you need to recognize that people are becoming attracted to ISIL for different reasons, have different interests, and are different points along the path of radicalization.    Some will indeed listen to a Salafi sheikh. Others are more receptive to a former jihadist and yet others are receptive to a movie star. Credibility, though, ultimately comes from authenticity and that is why the most credible messengers, in my view, are young people who are just like the ones whom ISIL is trying to recruit. We need more of them online.    And that brings me to my next point. To counter a swarm, you need a swarm. What's needed is scale. Scale, in my view, is more important than message.    Even if we found the perfect message, the perfect messenger--even if we managed to produce the perfect video, it would still be a drop in the ocean. There still wouldn't be enough oomph.    This is the Internet. People are exposed to thousands of things every day. To get your message through, you need to be loud, you need volume and you can't be on your own.    Rather than getting every single thing right, the emphasis should be on getting stuff out. I want to close with two quick observations on how government can be more effective in this space.    First, government alone will never be able to create the volume that is needed. It is not a credible messenger in this space and, worst of all, government is by definition risk averse, which is the opposite of what you need to have--what you need to be online.    For that reason, I wholeheartedly support the change of approach that's happened earlier this year--away from government-centered messaging toward empowering and working with partners--industry, NGOs, media companies, grassroots organizations, maybe even philanthropists who, by the way, haven't been doing enough in this space to sponsor hackathons, competitions, training, campaigns or setting up an independent online fund where people can go for small grants and lots of them.    Facebook recently set up an organization in Germany called OCCI, the Online Civil Courage Initiative, which has been designed precisely to counter extremist speech online. We need more of that and whatever government can do not to run them but to help them bring about it should do.    My final point--we need more data. It is almost an embarrassment. It is an embarrassment for everyone who works and is interested in this area. But we really still do not know what works. The initiatives that have happened have been so small scale and few in number they haven't generated enough data to make meaningful assertions.    This must be a priority for industry, for government, for NGOs running programs, and for all of them together.    Many thanks.</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Chairman Royce.    You know, fascinating testimony and something that we've talked about in this committee quite a bit. You know, we are--we do feel like we are losing the counter propaganda war. We're losing that battle on social media and on the Internet.    You know, I think--Mr. Hughes and Dr. Neumann, you both touched on how, you know, ISIL and other radical jihadists are able to create this conversation in an ongoing, almost organic way.    Dr. Neumann, you used the term creating the swarm, and the way to counteract that swarm is to have a swarm that is putting a counter narrative out there--that is, dispelling some of these myths, using technology.    Now, Mr. Hughes, you talked about the importance of this--you know, fostering the environment for this to happen but some of it being organic, coming out of the community and, you know, partnering that with--you know, the community members may not know how best to use technology but partnering that with the technology support so they can get that counter narrative out.    You know, I think a fundamental thing that is breaking down is--I talked to, you know, in Sacramento our homeland security folks, our local law enforcement--is there has to be a partnership between, you know, the Muslim community locally and the folks that are charged with trying to identify folks that may be on a path to getting radicalization but so you can intervene quickly and that seems to be breaking down right now and, you know, some of the rhetoric that we hear out there does not help the Muslim community reach out to others.    You know, perhaps some thoughts on how best we can start to repair that because, again, in my sense if we want to counteract this narrative it is going to take the community that understands our culture, that understands the word and so forth.    Partnering with, you know, whether it is technology support, whether it is local law enforcement, whether it is our homeland security folks, you know, Mr. Hughes, your thoughts.</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman, and I have watched your career for a number of years and you seem always to have gravitated toward fighting the intellectual battle and making sure that the United States was fighting that part of the battle of ideas and concepts rather than just the battle of who can shoot and kill the enemy.    We have experienced--this is fascinating. Thank you for your testimony from each of you today. We have lived through this before. I mean, it seems that fanaticism and which then accepts violence as a means to achieving fanatic goals is not new to this era of human history and we have--during the French Revolution we had people, you know, all of a sudden things went haywire and the struggle for liberty became the, let us say, guillotine anybody who speaks against the revolution, which then meant anybody who was just in some way opposing some of the concepts that were being discussed. Mao Tse-tung, Pol Pot, you name it--we have had these people who for some reason were able to mobilize large numbers of people to slaughter people who were basically innocent people.    This is--not to mention Hitler and his ilk, and how do we deter that in this modern age. I will tell you that, being a writer myself I especially--is it Lobel?    Mr. Lobel's concepts were very--I had not heard your presentation before. Who actually is paying for these things that you are doing already with this, sending groups of writers and things like that? Who's financing that?</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
   </si>
   <si>
     <t>412672</t>
-  </si>
-  <si>
-    <t>Daniel M. Donovan, Jr.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Chairman.    It has not been credited to anyone yet but as we sat here within the last hour when the chairman gavelled in there has been a mass shooting in a movie theater in Germany where at least 25 people have been injured. No one has taken credit for that but it is remarkable that we are speaking about this issue now and this occurred during our hearing.    I want to talk a little bit--my friend Brad Sherman spoke about prosecutors. I was a prosecutor for 20 years before I came to Congress and I remember in the days when gangs--street gangs used to recruit prospects for their gangs. And they could visualize--they could see the loner in the school yard. They could see the young person who had low self-esteem. They knew their target.    How do the recruiters for ISIS and other violent extremists find these individuals on the Internet? Because you can't visually see this person in their basement who is on their computer and doesn't have any friends and is a loner, unlike the street gangs.    How does this actually occur? How are they finding these individuals who are susceptible to being recruited? And I leave that to anyone.</t>
@@ -661,11 +637,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -685,13 +659,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -713,11 +685,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -737,13 +707,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -765,11 +733,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -789,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -817,11 +781,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -841,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -869,11 +829,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -893,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -921,11 +877,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -945,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -973,11 +925,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -997,13 +947,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1025,11 +973,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1049,13 +995,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1077,11 +1021,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1101,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1129,11 +1069,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1153,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1179,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1205,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1231,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1257,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1283,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1309,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1335,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1361,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1389,11 +1309,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1413,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1439,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1465,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1491,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1517,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1543,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1569,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>51</v>
-      </c>
-      <c r="H37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1597,11 +1501,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1621,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1647,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1673,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1699,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1725,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1751,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1777,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1803,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1829,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1855,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1881,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1907,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1935,11 +1813,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1959,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1985,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2011,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2037,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2063,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2089,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2115,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>73</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2143,11 +2005,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20531.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order and the subject here is combating what we call the virtual caliphate on the Internet.    Unfortunately, there is an irony in the effort to combat ISIS recruitment online and that is that the United States, which is the world's leader in technological innovation, is hardly in the game.    To protect Americans at home and abroad, this has to change. So great has been the explosion of slick and professional ISIS videos online that, as I indicated, a lot of people are referring to this as the virtual caliphate. Because within seconds, ISIS can reach a global audience using popular social media sites, disseminating hateful propaganda to recruit new fighters and promote its extreme ideology.    And more and more, the virtual caliphate is calling on its followers not necessarily to go to Syria or Iraq or Libya now but to take up arms and attack where they are at home.    ``The smallest action you do''--in their words--``the smallest action you do in their homeland is better and more enduring to us than what you would if you were with us.'' That is the refrain. That is the message being pounded into would-be jihadists and it is a message that is being pounded into many Americans and we know that terrorists consumed Islamist propaganda over the Internet. The attacks in Brussels, San Bernardino, Orlando, Paris, those are tied to ISIS' online efforts based on the sites visited by those undertaking these terrorist attacks.    Indeed, ISIS' online dominance is just as critical to that organization as the large amounts of territory that it controls in Iraq or Syria or Libya or other training bases that they have set up.    Unfortunately, the pace of our ``cyber bombs,'' as we sometimes call them--the counter battery work that we do, that we are dropping on ISIS' virtual sanctuary to take out these Web sites--is like our campaign on its physical territory. It is slow and it is inadequate to this task.    The State Department's efforts to respond to extremist content online are woefully inadequate. Its Center for Strategic Counter Terrorism Communications was designed to identify and respond to extremist content online. Yet because its communications were ``branded'' with the official State Department's seal, they fell on deaf ears. It is not effective to use the State Department seal when you are doing a counterterrorism narrative.    In March, the President issued an Executive order to revamp this effort, renaming it the Global Engagement Center and giving it the mission to lead the government-wide effort to ``diminish the influence of international terrorist organizations,'' as we said. The committee will soon hear from the administration how this effort differs from past failures.    But unfortunately, in public diplomacy as we know--and this is pretty widely the view--our public diplomacy efforts on electronic media, on social media have really been pretty much a bust--dysfunctional in the analysis of former State Department personnel who have taken a good long look at this.    At a basic level, key questions remain, including the type of message that would be most effective in the face of this virulent ideology. Some suggest that the voices of disaffected former jihadists are particularly potent in deterring future jihadists. These are individuals who quickly discovered that life under ISIS is not the utopia they were promised. Or the voices of former radicals--Ed Husain with his book ``The Jihadist.'' I read that lively account and it is clear that it is having quite an impact with young people, creating a lot of second thoughts about where this ideology is leading.    But if this is the message, how should it be delivered? Should the Federal Government produce and disseminate content? Is the Federal bureaucracy equipped for such a fast-moving fight? Does any association with the State Department mean this message is dead on arrival, as we found with the, you know, State Department indicia or the State Department title put out there as part of the narrative?    A more effective approach could have the U.S. Government issuing grants to outside groups to carry out this mission. This would have the advantage of allowing the U.S. Government to set the policy, but put those with the technical expertise and credible voice in the driver's seat here in delivering the message. After all, such separation and distance from the U.S. Government have helped our democracy promotion programs through the National Endowment for Democracy work in areas of the globe where official U.S. support just isn't feasible.    We also want to make use of emerging technologies that can automatically detect and remove extremist content online. I am aware that the private sector is working quickly to develop these types of programs, and admittedly, all this isn't easy. If it was, we'd be much better positioned going forward. But if we don't come to grips with the virtual caliphate now, this long struggle against Islamist terrorism will extend even longer, with great loss of life.    So I now turn to our ranking member, Mr. Brad Sherman from California, for any statement he may have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you, Mr. Chairman. There are events going on the floor yesterday and today. It is not the House at a high point of bipartisanship and order, and we can argue about who's to blame.    But when we come into this room, Mr. Chairman, we do see a high point of bipartisanship and order and the credit, clearly, goes to you and the ranking member. The ranking member cannot be here, at least at the beginning of this hearing, and I have an improvised opening statement. I had nothing prepared walking in so let us see whether any of these comments are helpful.    First in this issue we face the issue of whether to take down the terrorist message or leave it up and monitor, and I want to say almost always take it down.    First, the theory of fast and furious, let them take the guns and we will monitor what happens with the guns did not work then and the idea of let them leave the dangerous site up and let us monitor what happens may not work in the future.    But in addition, the terrorists know we are watching and they have decided--and they have been pretty good at this--that putting their message up publically is helpful notwithstanding the fact that we are monitoring it.    We ought to take it down. That means we need the coordination and cooperation of the industry. It was just about a year ago that Chairman Royce, Ranking Member Eliot Engel, Ted Poe, and I called upon Twitter to update its terms of service and take the terrorist message off Twitter.    Twitter was reluctant a bit at first but in April 2015 Twitter announced changes to their terms of service, added a new language to its stance on abusive behavior and adding the words ``threatening or promoting terrorism'' and they have substantially improved.    I should note that since Twitter changed its policies the terrorists have been forced onto other systems. Their tactic now involves direct messaging. I view that as a step forward. We closed off an efficient way to reach many people and now they have to try to use a less efficient system. But we now have to stop these direct messages.    We also have to focus on their encrypted chat apps--Telegram, Surespot, Theema--which seemed to have been created precisely for the market of people who want to evade law enforcement and I wonder why such products exist.    Next issue, and one that I have talked in this room an awful lot about, is the need to have people who know the language of the people we are trying to influence and I don't just mean studied Arabic in college. I mean a cultural understanding and an understanding of Islamic theology, Islamic jurisprudence, and Islamic history. Again and again the State Department has testified in this room that they don't have anybody who they have hired specifically because that person has the expertise in those areas whereas they have dozens of experts in arcane European diplomatic law as if the Austro-Hungarian Empire is the greatest concern of American foreign policy.    I am not saying that we should be issuing fatwas out of the State Department but we ought to have somebody who has read 1,000 fatwas working in the State Department and someone who knows the difference between what is accepted as a good hadith and what is not.    And the reason for this as our target audience is people who think they might want to kill innocent women and children. These are people who start from a very bizarre mindset. They are thinking of becoming terrorists.    They don't necessarily see the world the way we do translated into Arabic or translated into another language. These are people for whom evil consists--the word evil may not include killing a Yazidi family or torturing people or throwing gay people off of tall buildings.    They may live in a world where they think the Koran says that is what you're supposed to do. We have to have people that can go into that world. Not just the cyber world but the psychological world, and demonstrate to them that this is a perversion of Islam that has been focused by the terrorists.    For staffing, we need to look at whether it should be uniform military or civilian or some new status that is in between. And finally, Mr. Chairman, what happens over there comes over here. What happens in Raqqa doesn't stay in Raqqa.    An important part of turning back the cyberterrorist threat is to deal with ISIS on the ground and that will require changing and the administration is beginning to change the rules of engagement so that we can hit strategic targets, doing our best to avoid civilian casualties but not with the view that a single civilian casualty--the possibility of one stops any particular attack.    The ranking member has a statement prepared for delivery and I request that we make it part of the record.</t>
   </si>
   <si>
@@ -73,18 +88,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Hughes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hughes. Thank you. Chairman Royce, Ranking Member Sherman, distinguished members of the committee, it is a privilege to be invited to speak here today.    There are at least 900 active ISIS investigations in all 50 States. An estimated 250 Americans have attempted to or have travelled to Syria and Iraq to join groups like ISIS. The program in extremism has identified 91 people who have been charged with ISIS-related offenses in the last 2 years.    Homegrown terrorism is an apt description, as the overwhelming majority of these individuals are U.S. citizens born and raised here. There is no typical profile of an ISIS recruit. They are old. They are young. They are rich. They are poor. College educated and they are high school dropouts.    The United States, with its notable exceptions, does not have extremist organizations providing in-person ideological and logistical support to individuals drawn to the jihadi narrative.    As a result, American ISIS sympathizers are forced to find like-minded communities online. ISIS sympathizers use the online environment in a variety of ways.    First, of course, they use it to push the propaganda. Second, ISIS recruiters act as spotters to identify and groom would-be recruits. Third, they provide logistical support for would-be recruits. Finally, they encourage Americans to commit attacks here in the homeland.    ISIS supporters are very active and persistent online. Despite repeated removal from social media sites for violating terms of service, sympathizers routinely return to these platforms with new accounts.    A prime example of that is a recently arrested American woman who operated at least 97 Twitter accounts before her arrest.    There is a well-used but decentralized system that provides a level of resiliency to these online social networks. Using Twitter as an example, there is an ISIS shout-out account that announces newly created accounts of previously suspended accounts, allowing a person to essentially build back their network online.    However, it is important to note that ISIS network on Twitter has declined substantially since 2014 as a result of sustained suspensions. An overt English language ISIS-support network is nearly gone from Facebook but they still use it occasionally to mount campaigns and for person-to-person communications.    The English language ISIS echo chamber is now mostly concentrated on Telegram where they can more easily congregate. ISIS radicalization is by no means limited to social media. In-person relationships still matter a great deal.    It is an over simplification to say that Internet radicalization is the main factor driving American ISIS supporters. Rather, in most cases online and offline dynamics complement one another.    In 1998, Osama bin Laden faxed his declaration of war to the West. It would rightly be seen as naive to contend that fax machine radicalization was a key driver for al-Qaeda's early recruitment.    A similar dynamic plays out 18 years later. The State Department and USAID have released a countering violent extremism strategy. The State Department has also expanded the mission of the Bureau of Counter Terrorism to now include proactive CVE programs.    While a step in the right direction, time will tell whether this new focus on preventative programming will result in a tangible shift in resources and personnel.    Recently, the State Department also reorganized to address the changing nature of ISIS vis-a-vis the Internet. The newly-formed Global Engagement Center--the GEC--represents a recognition that previous efforts needed to be adjusted. However, the bureaucratic and structural issues that hampered and plagued GEC's predecessor are still present. The GEC may be limited in its online engagement by legal restrictions on collecting personal information. Working with civil rights and civil liberties groups, the committee should consider legislative fixes that allow the GEC some limited exemptions from the Privacy Act requirements.    There is also a noticeable push to empower local partners to provide counter messaging. In conversations with these partners, many have expressed a concern that engaging with known or suspected terrorists online may unduly place them under law enforcement suspicion.    The administration should consider providing the legal guidance to potential counter messengers, religious leaders around the country so they can make informed decisions on whether and how to engage online.    And technology companies have in the past been pushed by Congress and the public to expand and enforce their terms of service. That is right.    But the U.S. Government should use its convening authority to bring together civil society partners who want to perform counter messaging but don't understand the technology with social media providers who understand their platform but don't understand the nuances of counter messaging.    Thank you for an opportunity to testify. I welcome your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you, Mr. Hughes.    Dr. Lobel.</t>
   </si>
   <si>
+    <t>Lobel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lobel. Thank you, Chairman Royce, Ranking Member Sherman and distinguished members of the committee for inviting me to testify today, and thank you for your leadership and the example of bipartisanship you set on this committee.    It is so critical because in the long run America will only be successful in countering the ideology of Islamic extremism if our policies have bipartisan support.    As the founder of America Abroad Media, I have spent almost a decade and a half developing partnerships with major media channels in the greater Middle East. Based on my experience, I would like to summarize my written testimony and underscore two main points today.    First, the focus of U.S. strategy should be on enabling, supporting, and amplifying the indigenous voices for progress in the greater Middle East. This approach will yield far better results than trying to manage a counter messaging campaign from Washington.    Second, the best way for the U.S. Government to support those in the Middle East who share a vision for positive change is by mobilizing the creative power of America's leading institutions--Hollywood, Silicon Valley, our philanthropy, our NGOs, and our universities--so they can collaborate directly with their counterparts in the region.    From my own experience, I can tell you there are many people in the Middle East today pushing for greater progress and pluralism and there is a critical mass of them in the media.    The most popular TV channels in the region reach tens of millions of people and have the highest credibility with their audience. Several of these channels are producing programs that seek to promote the values of pluralism and counter extremist narratives.    For example, one of our partners is the largest Pan-Arab channel--the largest--the Saudi-owned Middle East Broadcasting Center (MBC). It is currently developing a large scale, 20-plus episode, anti-ISIS drama series based on real stories of young men and women who left their homes to join ISIS only to discover the reality behind their propaganda.    Last year, MBC aired a hit anti-ISIS comedy called ``Selfie'' which used the power of satire to expose ISIS hypocrisy. It was the number-one Ramadan show in the Gulf and had an audience exceeding 25 million.    Simply put, no U.S. Government channel or program in the Middle East, no matter how well intentioned or well produced, can come close to delivering this kind of reach or impact.    Young people in the Arab world today watch all the Hollywood movies and Turkish soap operas. But what they really want are more of these MBC-style shows, original Arabic language drama and comedy that reflects their own cultural storylines and meets the highest international standards.    And the creative community there have told me directly they want Hollywood support and guidance in order to develop more shows that meet their audiences' expectations.    They are asking for Hollywood writers to help them hone the storytelling and script writing skills that make American shows so successful. They want to learn from Hollywood's experience in order to develop world class Arab television and film.    My organization has already begun to help with this effort. I recently returned from a trip to Abu Dhabi with three of Hollywood's best storytellers, the award-winning producers and writers Ben Silverman, Greg Daniels, and Howard Owens. Happy to tell you more about them.    They led workshops with Arab TV and film writers and met with more than 100 of their counterparts in the creative community to share ideas for producing world class Arab drama and entertainment.    With more collaborations of this kind, we can unleash the creativity of Hollywood to help the Middle East develop a transformative entertainment industry that reaches tens of millions of people--of their people--with stories of hope and aspiration and advances the values we share.    In fact, the State Department has already taken some promising initial steps to catalyse greater Hollywood involvement in the Middle East. Last month, under the leadership of Under Secretary Rick Stengel and Assistant Secretary Evan Ryan, the State Department convened a meeting of high-level Hollywood talent, including our partners Ben Silverman and Greg Daniels, to discuss these very issues.    In addition to this convening power, catalytic funding from the U.S. Government could also make a tremendous difference. Due to low advertising rates, the entertainment market in the Middle East today is not commercially sustainable.    The U.S. Government could play a vitally important role by providing significant funding through grants and contracts that will enable the best creative content to succeed and become commercially sustainable.    With high-level attention, our Government can also inspire America's best philanthropic institutions to play a key role. For example, the John Templeton Foundation is already engaged in the Middle East through its well-respected Islam Initiative.    Several of our other leading foundations, such as Carnegie Corporation and the MacArthur Foundation, could all join together and have an enormous impact.    The vision I am outlining here is not new. In 2002, the Advisory Group on Public Diplomacy for the Arab and Muslim World, chaired by former U.S. Ambassador Ed Djerejian, wrote,        ``An attractive, less costly alternative or supplement         to U.S. Government broadcasting would be the aggressive         development of media programming in partnership with         private firms, nonprofit institutions, and government         agencies both in the United States and the Arab and         Muslim nations.''    This programming can then be distributed through existing channels in the region. In the aftermath of the horrific Orlando attack, our country sorely needs a nationwide effort catalysed by our Government to counter the ideology of extremism.    But rather than trying to fight this ideology on our own, we should be empowering and amplifying voices that speak to the Muslim world more authentically and more directly. These voices exist and the media of the Middle East are ready to broadcast them. The United States should reach out to support and catalyse such programming.    Thank you for the opportunity to testify before your committee today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thanks, Dr. Lobel.</t>
   </si>
   <si>
+    <t>Neumann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neumann. Thank you, Chairman Royce, Ranking Member Sherman, distinguished members of the committee. I appreciate the opportunity to talk about countering the propaganda of groups like I saw on the Internet.    My team and I in London have dedicated the past 4 years to understanding why young Muslims from Western countries are fighting with the jihadist groups in Syria and also why some of them are staying home, becoming inspired by jihadist propaganda, and end up attacking their own countries.    Based on this research and based on our accumulated knowledge about these people, some of whom are very dangerous, let me use this opportunity to make a couple of points each on the way that ISIL is using the Internet, how to counter their narrative, and finally what government needs to do to be more effective in this space.    Let me start by addressing how ISIL is using the Internet. ISIL has been more successful in exploiting the Internet than any group I have seen in 17 years of researching terrorism.    As many have pointed out, the sophistication of some of its products, the range of platforms it uses, the way it segments according to audiences, and how it has succeeded at times in dominating the conversation, all of this is unprecedented.    But--and that is my second point--the online ecosystem of ISIL goes beyond the group itself and includes more than just the videos that we are always talking about. What gives ISIL so much punch online are also, for example, individual fighters who facilitate one-on-one conversations.    It is also what we call the cheerleaders and fan boys and wannabes--people who aren't actually members of ISIS who are not based on Syria but are essentially freelance supporters often based in the West. They are the ones who are giving the group its online oomph. As far as online is concerned, what we are taking about is not just a group. It is what one of my colleagues, Dr. Nico Prucha, described as a swarm.    So how do we counter this swarm? I want to focus on the question of counter narratives. First point, there isn't one counter narrative and there isn't one counter narrator. Just like ISIL is segmenting its message according to audiences, you need to recognize that people are becoming attracted to ISIL for different reasons, have different interests, and are different points along the path of radicalization.    Some will indeed listen to a Salafi sheikh. Others are more receptive to a former jihadist and yet others are receptive to a movie star. Credibility, though, ultimately comes from authenticity and that is why the most credible messengers, in my view, are young people who are just like the ones whom ISIL is trying to recruit. We need more of them online.    And that brings me to my next point. To counter a swarm, you need a swarm. What's needed is scale. Scale, in my view, is more important than message.    Even if we found the perfect message, the perfect messenger--even if we managed to produce the perfect video, it would still be a drop in the ocean. There still wouldn't be enough oomph.    This is the Internet. People are exposed to thousands of things every day. To get your message through, you need to be loud, you need volume and you can't be on your own.    Rather than getting every single thing right, the emphasis should be on getting stuff out. I want to close with two quick observations on how government can be more effective in this space.    First, government alone will never be able to create the volume that is needed. It is not a credible messenger in this space and, worst of all, government is by definition risk averse, which is the opposite of what you need to have--what you need to be online.    For that reason, I wholeheartedly support the change of approach that's happened earlier this year--away from government-centered messaging toward empowering and working with partners--industry, NGOs, media companies, grassroots organizations, maybe even philanthropists who, by the way, haven't been doing enough in this space to sponsor hackathons, competitions, training, campaigns or setting up an independent online fund where people can go for small grants and lots of them.    Facebook recently set up an organization in Germany called OCCI, the Online Civil Courage Initiative, which has been designed precisely to counter extremist speech online. We need more of that and whatever government can do not to run them but to help them bring about it should do.    My final point--we need more data. It is almost an embarrassment. It is an embarrassment for everyone who works and is interested in this area. But we really still do not know what works. The initiatives that have happened have been so small scale and few in number they haven't generated enough data to make meaningful assertions.    This must be a priority for industry, for government, for NGOs running programs, and for all of them together.    Many thanks.</t>
   </si>
   <si>
@@ -118,6 +142,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Chairman Royce.    You know, fascinating testimony and something that we've talked about in this committee quite a bit. You know, we are--we do feel like we are losing the counter propaganda war. We're losing that battle on social media and on the Internet.    You know, I think--Mr. Hughes and Dr. Neumann, you both touched on how, you know, ISIL and other radical jihadists are able to create this conversation in an ongoing, almost organic way.    Dr. Neumann, you used the term creating the swarm, and the way to counteract that swarm is to have a swarm that is putting a counter narrative out there--that is, dispelling some of these myths, using technology.    Now, Mr. Hughes, you talked about the importance of this--you know, fostering the environment for this to happen but some of it being organic, coming out of the community and, you know, partnering that with--you know, the community members may not know how best to use technology but partnering that with the technology support so they can get that counter narrative out.    You know, I think a fundamental thing that is breaking down is--I talked to, you know, in Sacramento our homeland security folks, our local law enforcement--is there has to be a partnership between, you know, the Muslim community locally and the folks that are charged with trying to identify folks that may be on a path to getting radicalization but so you can intervene quickly and that seems to be breaking down right now and, you know, some of the rhetoric that we hear out there does not help the Muslim community reach out to others.    You know, perhaps some thoughts on how best we can start to repair that because, again, in my sense if we want to counteract this narrative it is going to take the community that understands our culture, that understands the word and so forth.    Partnering with, you know, whether it is technology support, whether it is local law enforcement, whether it is our homeland security folks, you know, Mr. Hughes, your thoughts.</t>
   </si>
   <si>
@@ -151,6 +181,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman, and I have watched your career for a number of years and you seem always to have gravitated toward fighting the intellectual battle and making sure that the United States was fighting that part of the battle of ideas and concepts rather than just the battle of who can shoot and kill the enemy.    We have experienced--this is fascinating. Thank you for your testimony from each of you today. We have lived through this before. I mean, it seems that fanaticism and which then accepts violence as a means to achieving fanatic goals is not new to this era of human history and we have--during the French Revolution we had people, you know, all of a sudden things went haywire and the struggle for liberty became the, let us say, guillotine anybody who speaks against the revolution, which then meant anybody who was just in some way opposing some of the concepts that were being discussed. Mao Tse-tung, Pol Pot, you name it--we have had these people who for some reason were able to mobilize large numbers of people to slaughter people who were basically innocent people.    This is--not to mention Hitler and his ilk, and how do we deter that in this modern age. I will tell you that, being a writer myself I especially--is it Lobel?    Mr. Lobel's concepts were very--I had not heard your presentation before. Who actually is paying for these things that you are doing already with this, sending groups of writers and things like that? Who's financing that?</t>
   </si>
   <si>
@@ -215,6 +251,12 @@
   </si>
   <si>
     <t>412672</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you, Mr. Chairman.    It has not been credited to anyone yet but as we sat here within the last hour when the chairman gavelled in there has been a mass shooting in a movie theater in Germany where at least 25 people have been injured. No one has taken credit for that but it is remarkable that we are speaking about this issue now and this occurred during our hearing.    I want to talk a little bit--my friend Brad Sherman spoke about prosecutors. I was a prosecutor for 20 years before I came to Congress and I remember in the days when gangs--street gangs used to recruit prospects for their gangs. And they could visualize--they could see the loner in the school yard. They could see the young person who had low self-esteem. They knew their target.    How do the recruiters for ISIS and other violent extremists find these individuals on the Internet? Because you can't visually see this person in their basement who is on their computer and doesn't have any friends and is a loner, unlike the street gangs.    How does this actually occur? How are they finding these individuals who are susceptible to being recruited? And I leave that to anyone.</t>
@@ -587,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,7 +637,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,1397 +659,1644 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
+        <v>79</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20531.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20531.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>400371</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Sherman</t>
@@ -629,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,1641 +671,1772 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
